--- a/TradingSimula_18-2022/TF-System#2_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#2_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-3768.800000000002</v>
+        <v>-28876.35000000014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-3768.800000000002</v>
+        <v>-142883.9750000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-3768.800000000002</v>
+        <v>-171724.6200000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-3768.800000000002</v>
+        <v>-259821.4700000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>4059.324999999998</v>
+        <v>-262160.6950000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>13254.638</v>
+        <v>-262117.9950000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>17215.575</v>
+        <v>-292924.6949999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>28770.263</v>
+        <v>-302761.9949999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>28426.513</v>
+        <v>-261609.6449999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>26040.72500000001</v>
+        <v>-315843.1200000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>21888.1825</v>
+        <v>-277197.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>28419.4325</v>
+        <v>-165315.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>28864.7455</v>
+        <v>-272427.695</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>28653.8075</v>
+        <v>-278836.1450000003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>27813.353</v>
+        <v>-278768.1449999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>27969.603</v>
+        <v>-353032.0600000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>35610.228</v>
+        <v>-354578.4600000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>33571.165</v>
+        <v>-313583.1599999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>44274.29</v>
+        <v>-248809.9099999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>59774.29</v>
+        <v>-249545.8100000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>67368.04000000001</v>
+        <v>-175081.1600000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>57086.55999999999</v>
+        <v>-111069.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>57086.55999999999</v>
+        <v>-127637.885</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>55633.43499999999</v>
+        <v>-221433.0600000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>53583.53499999999</v>
+        <v>-223386.0350000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>52567.90999999999</v>
+        <v>-232601.3350000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>49891.63499999999</v>
+        <v>-235554.6600000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>45358.69249999998</v>
+        <v>-294460.7900000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>50514.94249999998</v>
+        <v>-302768.4900000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>48202.44249999998</v>
+        <v>-331802.4150000005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>52546.19249999998</v>
+        <v>-249583.1900000004</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>47726.91749999997</v>
+        <v>-313804.0650000005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>41871.80999999997</v>
+        <v>-349016.8400000006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>41871.80999999997</v>
+        <v>-434699.0550000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>41871.80999999997</v>
+        <v>-448580.3050000005</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>41871.80999999997</v>
+        <v>-481050.5400000004</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>42106.18499999997</v>
+        <v>-451461.4400000004</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>39772.28749999998</v>
+        <v>-447902.7400000006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>39503.03749999998</v>
+        <v>-507337.2475000006</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>41284.28749999998</v>
+        <v>-511628.9975000006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>34938.19499999996</v>
+        <v>-506624.8725000006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>37664.75699999997</v>
+        <v>-508940.1725000006</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>39250.69499999996</v>
+        <v>-494653.8400000006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>41758.50699999997</v>
+        <v>-511570.2400000006</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>38831.84499999998</v>
+        <v>-643013.2125000007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>38339.65699999998</v>
+        <v>-440127.1125000009</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>35103.65699999998</v>
+        <v>-635146.5625000007</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>33099.00949999997</v>
+        <v>-272812.4425000008</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>33099.00949999997</v>
+        <v>-27254.79250000085</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>32755.25949999997</v>
+        <v>487517.607499999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>32911.50949999997</v>
+        <v>711397.5574999994</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>34630.25949999997</v>
+        <v>150362.0074999993</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>38856.82149999998</v>
+        <v>136502.4324999992</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>37274.06149999998</v>
+        <v>123672.7324999992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>31674.33649999998</v>
+        <v>122930.2474999993</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>35689.96149999998</v>
+        <v>106466.2224999992</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>30084.00349999998</v>
+        <v>254338.3974999991</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>31146.50349999998</v>
+        <v>44187.34749999915</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>36216.81549999999</v>
+        <v>13299.59249999921</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>36759.56049999998</v>
+        <v>-39695.65750000081</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>48611.12349999998</v>
+        <v>-93964.4075000007</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>36096.58299999999</v>
+        <v>-117797.3325000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>36096.58299999999</v>
+        <v>-209800.5075000005</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>35385.64499999999</v>
+        <v>-233497.0375000005</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>35500.21499999999</v>
+        <v>-253029.8374999997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>39172.08999999999</v>
+        <v>-383160.5124999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>34352.815</v>
+        <v>-381567.8624999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>29141.87699999999</v>
+        <v>-343692.7724999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>30967.47699999998</v>
+        <v>-316059.6224999996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>29102.71199999999</v>
+        <v>-218768.5475000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>28802.26199999999</v>
+        <v>69373.05250000012</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>28802.26199999999</v>
+        <v>583169.0724999998</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>30614.76199999999</v>
+        <v>1565251.1225</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>36810.07399999999</v>
+        <v>1409301.6975</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>35157.50899999999</v>
+        <v>2980869.497500001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>31213.63399999998</v>
+        <v>5931548.497500001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>31213.63399999998</v>
+        <v>6354653.722499999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>38651.13399999998</v>
+        <v>5226470.4975</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>40658.94599999998</v>
+        <v>5033138.789999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>35789.85099999998</v>
+        <v>5020749.289999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>34116.30099999998</v>
+        <v>5009422.689999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>35764.73799999998</v>
+        <v>5057735.252499999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>48744.24149999999</v>
+        <v>5228541.502499999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>49783.30349999999</v>
+        <v>5157418.972499998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>49205.17849999999</v>
+        <v>5845543.172499999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>46628.46149999999</v>
+        <v>5099707.252499999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>43203.3115</v>
+        <v>5074203.652499999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>43586.12449999999</v>
+        <v>5689353.152499998</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>42528.9615</v>
+        <v>5087033.077499999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>40005.5245</v>
+        <v>5045957.727499999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>37712.154</v>
+        <v>5060915.704999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>37712.154</v>
+        <v>4940422.279999997</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>31816.43900000001</v>
+        <v>4954680.379999998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>30839.87600000001</v>
+        <v>4806439.404999997</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>32152.37600000001</v>
+        <v>4100148.929999998</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>32332.06400000001</v>
+        <v>4108635.704999998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>38347.68900000001</v>
+        <v>4017656.279999998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>43175.81400000001</v>
+        <v>5197421.979999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>38363.31400000001</v>
+        <v>3806663.83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>40343.914</v>
+        <v>3818807.317499999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>36592.151</v>
+        <v>3838139.3925</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>36592.151</v>
+        <v>3776856.1775</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>36592.151</v>
+        <v>3330052.314999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>36592.151</v>
+        <v>4119715.965</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>36709.338</v>
+        <v>4633527.625000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>39001.4485</v>
+        <v>6128379.6125</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>35886.59849999999</v>
+        <v>5966185.137499999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>38503.7855</v>
+        <v>5683882.642499999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>39816.2855</v>
+        <v>5870235.072499998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>36972.5355</v>
+        <v>6157304.819999998</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>45644.4105</v>
+        <v>5713385.919999998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>41172.78549999999</v>
+        <v>6203374.519999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>49883.72349999999</v>
+        <v>6974175.869999997</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>53766.53549999999</v>
+        <v>6740280.219999997</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>52618.09849999999</v>
+        <v>7614821.952499998</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>68672.7855</v>
+        <v>8164951.352499996</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>61548.57799999999</v>
+        <v>7989400.102499996</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>58874.028</v>
+        <v>8279957.727499998</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>58874.028</v>
+        <v>8916355.437499998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>58874.028</v>
+        <v>9323222.062499998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>59936.528</v>
+        <v>8731285.5825</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>73694.34</v>
+        <v>8726090.232499998</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>89053.715</v>
+        <v>8726558.432499999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>91522.465</v>
+        <v>8684215.547499996</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>91006.84</v>
+        <v>8597844.412499998</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>85415.853</v>
+        <v>8605007.722499998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>86064.29000000001</v>
+        <v>8589900.262499997</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>80813.95750000002</v>
+        <v>8603341.547499998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>80813.95750000002</v>
+        <v>8598159.402499998</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>82173.33250000002</v>
+        <v>8257641.012499998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>78379.345</v>
+        <v>8221162.464999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>80082.36500000002</v>
+        <v>7922734.424999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>85155.598</v>
+        <v>7521061.54</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>97311.848</v>
+        <v>7571907.85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>104288.411</v>
+        <v>8422160.51</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>99999.348</v>
+        <v>13824167.31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>94990.981</v>
+        <v>7347760.345000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>95897.231</v>
+        <v>7322792.880000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>101295.668</v>
+        <v>7331316.955</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>99994.15800000001</v>
+        <v>7335729.470000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>97518.30800000002</v>
+        <v>8452996.770000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>95494.87100000003</v>
+        <v>7202064.845</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>92940.54600000005</v>
+        <v>7213570.145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>89282.07100000005</v>
+        <v>7203284.445</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>91243.00800000005</v>
+        <v>7362815.979999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>92891.44600000005</v>
+        <v>6023983.637499998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6039101.507499998</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6022926.074999999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6864949.175</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5993098.725</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6003167.774999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5984235.324999999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6262681.675</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5964697.614999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5941113.192499999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5908710.7925</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5925543.607499998</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5881915.827499999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5780689.47</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6517445.349999998</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7420861.232499998</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8556556.137499999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8472182.622500001</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7500176.122500001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7490152.000000002</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7496039.65</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7504940.9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>7494858.649999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>7437075.449999998</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7397238.649999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7511900.674999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>7382612.727499998</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>7365582.227499998</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7350961.977499998</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7346083.977499998</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7351661.777499998</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7369874.767499998</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7357781.1975</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7397000.99</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>7032985.165000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7054452.01</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>7023041.7425</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>7020281.5425</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>7009587.2925</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6991650.2925</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6993678.5325</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6983799.4175</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6808541.955</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6848844.305000001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6566190.857500001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6561388.8425</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6531604.697500001</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6469879.3775</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6448640.7975</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6336335.067500001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6334744.367500001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6324711.067500001</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6421299.237500001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>7304153.502500001</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6335302.045</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6311822.345000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6179057.845000002</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6894283.470000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6644886.135000002</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7182651.205000002</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7258707.987500001</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6977752.807500003</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6946521.682500001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6864676.630000002</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6854291.605000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7120086.605</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7624023.805000002</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7108344.255000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7558476.190000001</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7532181.515000002</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>7571978.655</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>7750289.525</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>7548457.075000001</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>7474601.175</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>7433324.43</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>7433818.497500001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7340808.147500001</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7409773.8975</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7514974.347499997</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7075852.7025</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6994256.352499999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7000229.185</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>7194896.285</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7349254.035</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7307343.210000001</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6867087.235000001</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6804565.810000001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6744057.000000003</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6580619.910000003</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6980451.475000003</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7867199.070000004</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7004772.652500003</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7537454.652500004</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7242056.152500004</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7390648.452500002</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>7294350.572500005</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>7048511.312500005</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8603260.787500005</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7103771.337500004</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7027300.412500004</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7018247.302500004</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8205610.482500002</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>10407192.625</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7405083.875000003</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7416167.375000004</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7263141.227500004</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>7274479.787500003</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>6020659.507500004</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4929189.182500005</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4602201.992500004</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4579481.282500003</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4589666.450000005</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4591909.750000005</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4605289.410000005</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4561909.367500004</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4117335.502500004</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3789571.602500003</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3763886.582500003</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3743990.812500003</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3708373.997500003</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3308613.472500003</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>94323.82100000005</v>
+      <c r="B269" t="n">
+        <v>2957088.197500002</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3028890.772500002</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2713202.247500004</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3174780.147500005</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3333222.002500004</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3450964.052500004</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3761085.327500005</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3330818.187500005</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3156189.277500005</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2878752.627500003</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3439039.477500004</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2854944.687500003</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2792663.052500003</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2520437.802500003</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2366478.052500003</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2279619.652500004</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2349272.717500004</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2256572.602500004</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2274795.252500003</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2169417.092500005</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2426657.260000005</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2002635.900000004</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2010031.385000004</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2112863.327500004</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2232785.077500003</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2242878.337500004</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1879684.152500003</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1881182.400000003</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1918872.400000003</v>
       </c>
     </row>
   </sheetData>
